--- a/data/trans_dic/P42C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Provincia-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,15; 28,95</t>
+          <t>16,89; 27,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,15; 28,95</t>
+          <t>16,89; 27,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,46; 26,99</t>
+          <t>18,7; 27,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,46; 18,88</t>
+          <t>11,66; 18,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,46; 26,99</t>
+          <t>18,7; 27,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,46; 18,88</t>
+          <t>11,66; 18,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,81; 27,28</t>
+          <t>16,82; 27,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,92</t>
+          <t>3,32; 8,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,81; 27,28</t>
+          <t>16,82; 27,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,92</t>
+          <t>3,32; 8,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,05; 30,78</t>
+          <t>22,96; 31,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,49; 18,22</t>
+          <t>9,54; 17,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,05; 30,78</t>
+          <t>22,96; 31,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,49; 18,22</t>
+          <t>9,54; 17,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,05; 36,41</t>
+          <t>22,65; 37,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,88</t>
+          <t>1,57; 7,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,05; 36,41</t>
+          <t>22,65; 37,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,88</t>
+          <t>1,57; 7,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,64; 28,03</t>
+          <t>14,98; 27,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,16; 24,17</t>
+          <t>12,97; 23,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,64; 28,03</t>
+          <t>14,98; 27,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,16; 24,17</t>
+          <t>12,97; 23,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,76; 28,56</t>
+          <t>20,0; 27,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,07; 27,39</t>
+          <t>19,63; 27,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,76; 28,56</t>
+          <t>20,0; 27,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,07; 27,39</t>
+          <t>19,63; 27,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18,52; 26,36</t>
+          <t>19,17; 26,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,74; 17,34</t>
+          <t>11,54; 17,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,52; 26,36</t>
+          <t>19,17; 26,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,74; 17,34</t>
+          <t>11,54; 17,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,33; 25,76</t>
+          <t>22,25; 25,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,16; 16,77</t>
+          <t>14,27; 16,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1595,12 +1595,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>22,33; 25,76</t>
+          <t>22,25; 25,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,16; 16,77</t>
+          <t>14,27; 16,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">

--- a/data/trans_dic/P42C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,89; 27,97</t>
+          <t>16,84; 28,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,69; 26,9</t>
+          <t>16,62; 27,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,89; 27,97</t>
+          <t>16,84; 28,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,69; 26,9</t>
+          <t>16,62; 27,27</t>
         </is>
       </c>
     </row>
@@ -810,32 +810,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,7; 27,74</t>
+          <t>18,44; 26,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 18,98</t>
+          <t>11,58; 18,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,02; 32,03</t>
+          <t>23,15; 32,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,7; 27,74</t>
+          <t>18,44; 26,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 18,98</t>
+          <t>11,58; 18,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,02; 32,03</t>
+          <t>23,15; 32,51</t>
         </is>
       </c>
     </row>
@@ -920,32 +920,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,82; 27,33</t>
+          <t>16,71; 27,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,93</t>
+          <t>3,33; 8,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,32; 22,42</t>
+          <t>12,74; 21,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,82; 27,33</t>
+          <t>16,71; 27,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,93</t>
+          <t>3,33; 8,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,32; 22,42</t>
+          <t>12,74; 21,77</t>
         </is>
       </c>
     </row>
@@ -1030,32 +1030,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,96; 31,09</t>
+          <t>22,9; 31,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,54; 17,43</t>
+          <t>9,35; 18,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,73; 26,29</t>
+          <t>16,42; 26,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,96; 31,09</t>
+          <t>22,9; 31,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,54; 17,43</t>
+          <t>9,35; 18,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,73; 26,29</t>
+          <t>16,42; 26,92</t>
         </is>
       </c>
     </row>
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,65; 37,22</t>
+          <t>22,17; 36,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,61</t>
+          <t>1,57; 7,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 24,69</t>
+          <t>14,51; 24,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,65; 37,22</t>
+          <t>22,17; 36,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,61</t>
+          <t>1,57; 7,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 24,69</t>
+          <t>14,51; 24,05</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1250,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,98; 27,47</t>
+          <t>15,53; 26,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,97; 23,99</t>
+          <t>13,3; 23,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,36; 21,12</t>
+          <t>11,15; 20,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,98; 27,47</t>
+          <t>15,53; 26,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,97; 23,99</t>
+          <t>13,3; 23,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,36; 21,12</t>
+          <t>11,15; 20,43</t>
         </is>
       </c>
     </row>
@@ -1360,32 +1360,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,0; 27,94</t>
+          <t>20,68; 28,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,63; 27,08</t>
+          <t>20,17; 27,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,71; 49,62</t>
+          <t>40,43; 49,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,0; 27,94</t>
+          <t>20,68; 28,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,63; 27,08</t>
+          <t>20,17; 27,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>40,71; 49,62</t>
+          <t>40,43; 49,31</t>
         </is>
       </c>
     </row>
@@ -1470,32 +1470,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>19,17; 26,17</t>
+          <t>18,97; 26,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,54; 17,14</t>
+          <t>11,63; 17,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,82; 14,71</t>
+          <t>8,87; 14,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,17; 26,17</t>
+          <t>18,97; 26,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,54; 17,14</t>
+          <t>11,63; 17,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,82; 14,71</t>
+          <t>8,87; 14,64</t>
         </is>
       </c>
     </row>
@@ -1580,32 +1580,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,25; 25,68</t>
+          <t>22,29; 25,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,27; 16,88</t>
+          <t>14,19; 16,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,22; 25,6</t>
+          <t>22,06; 25,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>22,25; 25,68</t>
+          <t>22,29; 25,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,27; 16,88</t>
+          <t>14,19; 16,98</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,22; 25,6</t>
+          <t>22,06; 25,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P42C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Provincia-trans_dic.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>21,43%</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,47; 29,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,62; 27,27</t>
+          <t>16,64; 27,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,47; 29,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,62; 27,27</t>
+          <t>16,64; 27,38</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>27,23%</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,15; 32,51</t>
+          <t>23,1; 32,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,15; 32,51</t>
+          <t>23,1; 32,41</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>17,26%</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,74; 21,77</t>
+          <t>12,75; 21,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,74; 21,77</t>
+          <t>12,75; 21,76</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>16,02%</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,9; 31,25</t>
+          <t>25,2; 35,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,12 +1040,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,42; 26,92</t>
+          <t>8,5; 23,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,9; 31,25</t>
+          <t>25,2; 35,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,42; 26,92</t>
+          <t>8,5; 23,39</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>18,84%</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 24,05</t>
+          <t>14,56; 23,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 24,05</t>
+          <t>14,56; 23,81</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>15,79%</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,15; 20,43</t>
+          <t>11,03; 20,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,15; 20,43</t>
+          <t>11,03; 20,25</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>45,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>45,15%</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,43; 49,31</t>
+          <t>40,49; 49,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>40,43; 49,31</t>
+          <t>40,49; 49,39</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,52%</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,64</t>
+          <t>8,84; 14,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,64</t>
+          <t>8,84; 14,56</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>23,2%</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,06; 25,69</t>
+          <t>20,33; 25,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,06; 25,69</t>
+          <t>20,33; 25,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P42C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -700,39 +701,39 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 29,31</t>
+          <t>17,35; 29,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,84; 28,4</t>
+          <t>16,92; 28,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,64; 27,38</t>
+          <t>16,88; 28,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 29,31</t>
+          <t>17,35; 29,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,84; 28,4</t>
+          <t>16,92; 28,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,64; 27,38</t>
+          <t>16,88; 28,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,39 +811,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,44; 26,7</t>
+          <t>18,87; 27,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,58; 18,96</t>
+          <t>11,58; 18,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,1; 32,41</t>
+          <t>23,06; 32,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,44; 26,7</t>
+          <t>18,87; 27,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,58; 18,96</t>
+          <t>11,58; 18,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,1; 32,41</t>
+          <t>23,06; 32,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -920,32 +921,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,71; 27,43</t>
+          <t>16,35; 26,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,78</t>
+          <t>3,23; 8,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,75; 21,76</t>
+          <t>13,11; 22,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,71; 27,43</t>
+          <t>16,35; 26,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,78</t>
+          <t>3,23; 8,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,75; 21,76</t>
+          <t>13,11; 22,87</t>
         </is>
       </c>
     </row>
@@ -1030,32 +1031,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,2; 35,65</t>
+          <t>24,47; 35,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,35; 18,09</t>
+          <t>9,48; 18,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,5; 23,39</t>
+          <t>8,08; 23,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,2; 35,65</t>
+          <t>24,47; 35,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,35; 18,09</t>
+          <t>9,48; 18,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,5; 23,39</t>
+          <t>8,08; 23,51</t>
         </is>
       </c>
     </row>
@@ -1140,39 +1141,39 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,17; 36,34</t>
+          <t>22,07; 36,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,02</t>
+          <t>1,56; 7,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,56; 23,81</t>
+          <t>14,5; 24,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,17; 36,34</t>
+          <t>22,07; 36,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,02</t>
+          <t>1,56; 7,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,56; 23,81</t>
+          <t>14,5; 24,35</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1250,39 +1251,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,53; 26,88</t>
+          <t>15,29; 26,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,3; 23,46</t>
+          <t>13,29; 24,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,03; 20,25</t>
+          <t>11,4; 20,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,53; 26,88</t>
+          <t>15,29; 26,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,3; 23,46</t>
+          <t>13,29; 24,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,03; 20,25</t>
+          <t>11,4; 20,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1360,32 +1361,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,68; 28,3</t>
+          <t>20,67; 28,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,17; 27,39</t>
+          <t>20,03; 27,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,49; 49,39</t>
+          <t>40,93; 49,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,68; 28,3</t>
+          <t>20,67; 28,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,17; 27,39</t>
+          <t>20,03; 27,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>40,49; 49,39</t>
+          <t>40,93; 49,63</t>
         </is>
       </c>
     </row>
@@ -1470,32 +1471,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18,97; 26,54</t>
+          <t>19,11; 26,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,63; 17,21</t>
+          <t>11,32; 17,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,84; 14,56</t>
+          <t>8,76; 14,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,97; 26,54</t>
+          <t>19,11; 26,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,63; 17,21</t>
+          <t>11,32; 17,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,84; 14,56</t>
+          <t>8,76; 14,45</t>
         </is>
       </c>
     </row>
@@ -1580,32 +1581,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,29; 25,89</t>
+          <t>22,3; 25,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,19; 16,98</t>
+          <t>14,25; 17,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,33; 25,26</t>
+          <t>20,44; 25,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>22,29; 25,89</t>
+          <t>22,3; 25,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,19; 16,98</t>
+          <t>14,25; 17,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>20,33; 25,26</t>
+          <t>20,44; 25,25</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya última consulta ginecológica fue en un centro privado</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>53670</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>50722</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>33720</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>53670</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>50722</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>33720</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>40760; 68463</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>38500; 65181</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26559; 44066</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>40760; 68463</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>38500; 65181</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26559; 44066</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>98357</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>59504</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>90181</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>98357</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>59504</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>90181</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>81958; 118016</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>46274; 74778</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>76382; 107171</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>81958; 118016</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>46274; 74778</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>76382; 107171</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>57655</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15350</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31000</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>57655</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15350</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31000</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>43775; 70586</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8900; 23578</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23537; 41075</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>43775; 70586</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8900; 23578</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23537; 41075</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>86922</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>38040</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>52276</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>86922</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38040</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>52276</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>70688; 102537</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>27054; 53349</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>26385; 76728</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>70688; 102537</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>27054; 53349</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>26385; 76728</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>49433</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6221</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>24352</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>49433</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6221</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24352</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>37386; 61010</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2633; 12313</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18737; 31469</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>37386; 61010</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2633; 12313</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18737; 31469</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>44953</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>37313</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>21625</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>44953</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>37313</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>21625</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>32832; 57945</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>27545; 49804</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>15614; 28742</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>32832; 57945</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>27545; 49804</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>15614; 28742</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>135901</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>127274</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>170898</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>135901</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>127274</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>170898</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>115629; 158821</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>108366; 147521</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>154924; 187866</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>115629; 158821</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>108366; 147521</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>154924; 187866</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>128784</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>95108</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>43286</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>128784</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>95108</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>43286</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>109014; 149600</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>75924; 115638</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>32910; 54286</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>109014; 149600</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>75924; 115638</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>32910; 54286</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>655675</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>429531</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>467337</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>655675</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>429531</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>467337</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>611083; 705108</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>395628; 472258</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>411727; 508802</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>611083; 705108</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>395628; 472258</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>411727; 508802</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>